--- a/Data/EC/NIT-8020027654.xlsx
+++ b/Data/EC/NIT-8020027654.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{75F33776-5D11-49B1-85F3-4A5E8B810C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3927DD11-6EAE-4594-AF73-2A370C2348A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{4AD7880E-91A5-4B9E-9B08-08DF1867AD50}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0151EED8-94EF-4C90-A314-DBF711ADBB82}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="94">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,106 +65,211 @@
     <t>CC</t>
   </si>
   <si>
+    <t>73187481</t>
+  </si>
+  <si>
+    <t>ALEXANDER RAFAEL SANCHEZ DE HOYOS</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>1047418375</t>
+  </si>
+  <si>
+    <t>LUIS GABRIEL ARNEDO YANES</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
     <t>12685506</t>
   </si>
   <si>
     <t>HERNAN YESID MONTERO JEJEN</t>
   </si>
   <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>1912</t>
+  </si>
+  <si>
+    <t>1911</t>
+  </si>
+  <si>
+    <t>1910</t>
+  </si>
+  <si>
+    <t>1909</t>
+  </si>
+  <si>
+    <t>1908</t>
+  </si>
+  <si>
+    <t>1907</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>1905</t>
+  </si>
+  <si>
+    <t>1904</t>
+  </si>
+  <si>
+    <t>1903</t>
+  </si>
+  <si>
+    <t>1902</t>
+  </si>
+  <si>
+    <t>1901</t>
+  </si>
+  <si>
+    <t>1812</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
+    <t>1810</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>1808</t>
+  </si>
+  <si>
+    <t>1807</t>
+  </si>
+  <si>
+    <t>1806</t>
+  </si>
+  <si>
+    <t>1805</t>
+  </si>
+  <si>
+    <t>1804</t>
+  </si>
+  <si>
+    <t>1803</t>
+  </si>
+  <si>
+    <t>1802</t>
+  </si>
+  <si>
+    <t>1801</t>
+  </si>
+  <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
+    <t>1702</t>
+  </si>
+  <si>
+    <t>1701</t>
+  </si>
+  <si>
+    <t>1612</t>
+  </si>
+  <si>
+    <t>1611</t>
+  </si>
+  <si>
+    <t>1610</t>
+  </si>
+  <si>
+    <t>1609</t>
+  </si>
+  <si>
+    <t>1608</t>
+  </si>
+  <si>
     <t>1607</t>
   </si>
   <si>
-    <t>1608</t>
-  </si>
-  <si>
-    <t>1609</t>
-  </si>
-  <si>
-    <t>1610</t>
-  </si>
-  <si>
-    <t>1611</t>
-  </si>
-  <si>
-    <t>1612</t>
-  </si>
-  <si>
-    <t>1701</t>
-  </si>
-  <si>
-    <t>1702</t>
-  </si>
-  <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
-  </si>
-  <si>
-    <t>1801</t>
-  </si>
-  <si>
-    <t>1802</t>
-  </si>
-  <si>
-    <t>1803</t>
-  </si>
-  <si>
-    <t>1804</t>
-  </si>
-  <si>
-    <t>1805</t>
-  </si>
-  <si>
-    <t>1806</t>
-  </si>
-  <si>
-    <t>1807</t>
-  </si>
-  <si>
-    <t>1808</t>
-  </si>
-  <si>
-    <t>1809</t>
-  </si>
-  <si>
-    <t>1810</t>
-  </si>
-  <si>
-    <t>1811</t>
-  </si>
-  <si>
-    <t>1812</t>
-  </si>
-  <si>
-    <t>1901</t>
-  </si>
-  <si>
-    <t>1902</t>
+    <t>1049829313</t>
+  </si>
+  <si>
+    <t>DAICER DANIEL PRENS ARIAS</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>1143336332</t>
+  </si>
+  <si>
+    <t>GILLIANO MARCO SERNA HERNANDEZ</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>1049537251</t>
+  </si>
+  <si>
+    <t>CARLOS ANDRES MARTINEZ TABORDA</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
   </si>
   <si>
     <t>73270377</t>
@@ -173,78 +278,6 @@
     <t>OSCAR MANUEL HERNANDEZ VARGAS</t>
   </si>
   <si>
-    <t>1903</t>
-  </si>
-  <si>
-    <t>1904</t>
-  </si>
-  <si>
-    <t>1905</t>
-  </si>
-  <si>
-    <t>1906</t>
-  </si>
-  <si>
-    <t>1907</t>
-  </si>
-  <si>
-    <t>1908</t>
-  </si>
-  <si>
-    <t>1909</t>
-  </si>
-  <si>
-    <t>1910</t>
-  </si>
-  <si>
-    <t>1911</t>
-  </si>
-  <si>
-    <t>1912</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>1049829313</t>
-  </si>
-  <si>
-    <t>DAICER DANIEL PRENS ARIAS</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>1143336332</t>
-  </si>
-  <si>
-    <t>GILLIANO MARCO SERNA HERNANDEZ</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>73187481</t>
-  </si>
-  <si>
-    <t>ALEXANDER RAFAEL SANCHEZ DE HOYOS</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
     <t>PPT</t>
   </si>
   <si>
@@ -252,18 +285,6 @@
   </si>
   <si>
     <t>ANTHONY YEFERSSON VILLANUEVA GIL</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>1047418375</t>
-  </si>
-  <si>
-    <t>LUIS GABRIEL ARNEDO YANES</t>
-  </si>
-  <si>
-    <t>2401</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -677,7 +698,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1E65282-7A9A-80B4-5974-48230512C2F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99758A17-0609-2076-3739-5273564DF5E0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1028,8 +1049,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12F228DC-7967-4B4F-B572-85DF928F63FB}">
-  <dimension ref="B2:J77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD683E08-9A7F-43C2-9979-409E17E02CF3}">
+  <dimension ref="B2:J83"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1053,7 +1074,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1098,7 +1119,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1130,12 +1151,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1696423</v>
+        <v>1936423</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1146,17 +1167,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C13" s="5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="F13" s="5">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1183,13 +1204,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1206,10 +1227,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>24640</v>
+        <v>46400</v>
       </c>
       <c r="G16" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1229,10 +1250,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>24640</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>781242</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1243,19 +1264,19 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
-        <v>24640</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>781242</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1266,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G19" s="18">
         <v>781242</v>
@@ -1289,16 +1310,16 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G20" s="18">
         <v>781242</v>
@@ -1312,16 +1333,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G21" s="18">
         <v>781242</v>
@@ -1335,16 +1356,16 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G22" s="18">
         <v>781242</v>
@@ -1358,16 +1379,16 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G23" s="18">
         <v>781242</v>
@@ -1381,16 +1402,16 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G24" s="18">
         <v>781242</v>
@@ -1404,16 +1425,16 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G25" s="18">
         <v>781242</v>
@@ -1427,16 +1448,16 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G26" s="18">
         <v>781242</v>
@@ -1450,16 +1471,16 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G27" s="18">
         <v>781242</v>
@@ -1473,16 +1494,16 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G28" s="18">
         <v>781242</v>
@@ -1496,16 +1517,16 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G29" s="18">
         <v>781242</v>
@@ -1519,16 +1540,16 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G30" s="18">
         <v>781242</v>
@@ -1542,16 +1563,16 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G31" s="18">
         <v>781242</v>
@@ -1565,16 +1586,16 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F32" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G32" s="18">
         <v>781242</v>
@@ -1588,16 +1609,16 @@
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="F33" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G33" s="18">
         <v>781242</v>
@@ -1611,16 +1632,16 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F34" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G34" s="18">
         <v>781242</v>
@@ -1634,16 +1655,16 @@
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F35" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G35" s="18">
         <v>781242</v>
@@ -1657,16 +1678,16 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F36" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G36" s="18">
         <v>781242</v>
@@ -1680,16 +1701,16 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F37" s="18">
-        <v>24640</v>
+        <v>31249</v>
       </c>
       <c r="G37" s="18">
         <v>781242</v>
@@ -1703,13 +1724,13 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F38" s="18">
         <v>24640</v>
@@ -1726,13 +1747,13 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F39" s="18">
         <v>24640</v>
@@ -1749,13 +1770,13 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F40" s="18">
         <v>24640</v>
@@ -1772,13 +1793,13 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F41" s="18">
         <v>24640</v>
@@ -1795,16 +1816,16 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F42" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G42" s="18">
         <v>781242</v>
@@ -1818,16 +1839,16 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="F43" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G43" s="18">
         <v>781242</v>
@@ -1841,16 +1862,16 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F44" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G44" s="18">
         <v>781242</v>
@@ -1864,16 +1885,16 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F45" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G45" s="18">
         <v>781242</v>
@@ -1887,16 +1908,16 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="F46" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G46" s="18">
         <v>781242</v>
@@ -1910,16 +1931,16 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="F47" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G47" s="18">
         <v>781242</v>
@@ -1933,19 +1954,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="F48" s="18">
-        <v>48000</v>
+        <v>24640</v>
       </c>
       <c r="G48" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1956,19 +1977,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="F49" s="18">
-        <v>48000</v>
+        <v>24640</v>
       </c>
       <c r="G49" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1979,16 +2000,16 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F50" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G50" s="18">
         <v>781242</v>
@@ -2002,19 +2023,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="F51" s="18">
-        <v>48000</v>
+        <v>24640</v>
       </c>
       <c r="G51" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -2025,16 +2046,16 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F52" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G52" s="18">
         <v>781242</v>
@@ -2048,16 +2069,16 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F53" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G53" s="18">
         <v>781242</v>
@@ -2071,19 +2092,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="F54" s="18">
-        <v>48000</v>
+        <v>24640</v>
       </c>
       <c r="G54" s="18">
-        <v>1200000</v>
+        <v>781242</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2094,16 +2115,16 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="F55" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G55" s="18">
         <v>781242</v>
@@ -2117,16 +2138,16 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F56" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G56" s="18">
         <v>781242</v>
@@ -2140,16 +2161,16 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="F57" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G57" s="18">
         <v>781242</v>
@@ -2163,16 +2184,16 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F58" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G58" s="18">
         <v>781242</v>
@@ -2186,16 +2207,16 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F59" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G59" s="18">
         <v>781242</v>
@@ -2209,16 +2230,16 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="F60" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G60" s="18">
         <v>781242</v>
@@ -2232,16 +2253,16 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="F61" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G61" s="18">
         <v>781242</v>
@@ -2255,16 +2276,16 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F62" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G62" s="18">
         <v>781242</v>
@@ -2278,16 +2299,16 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F63" s="18">
-        <v>31249</v>
+        <v>24640</v>
       </c>
       <c r="G63" s="18">
         <v>781242</v>
@@ -2301,19 +2322,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="F64" s="18">
-        <v>31249</v>
+        <v>36341</v>
       </c>
       <c r="G64" s="18">
-        <v>781242</v>
+        <v>908526</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2324,13 +2345,13 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="F65" s="18">
         <v>36341</v>
@@ -2347,16 +2368,16 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="F66" s="18">
-        <v>36341</v>
+        <v>18170</v>
       </c>
       <c r="G66" s="18">
         <v>908526</v>
@@ -2370,19 +2391,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F67" s="18">
-        <v>18170</v>
+        <v>40000</v>
       </c>
       <c r="G67" s="18">
-        <v>908526</v>
+        <v>1000000</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2393,19 +2414,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G68" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2416,19 +2437,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="F69" s="18">
-        <v>46400</v>
+        <v>40000</v>
       </c>
       <c r="G69" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2436,7 +2457,7 @@
     </row>
     <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
-        <v>69</v>
+        <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
         <v>70</v>
@@ -2445,69 +2466,207 @@
         <v>71</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F70" s="18">
         <v>40000</v>
       </c>
       <c r="G70" s="18">
-        <v>1300000</v>
+        <v>1000000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
     <row r="71" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B71" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C71" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="D71" s="23" t="s">
-        <v>74</v>
-      </c>
-      <c r="E71" s="22" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="24">
-        <v>46400</v>
-      </c>
-      <c r="G71" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H71" s="25"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="26"/>
+      <c r="B71" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D71" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F71" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G71" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H71" s="19"/>
+      <c r="I71" s="19"/>
+      <c r="J71" s="20"/>
+    </row>
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D72" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E72" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="F72" s="18">
+        <v>40000</v>
+      </c>
+      <c r="G72" s="18">
+        <v>1000000</v>
+      </c>
+      <c r="H72" s="19"/>
+      <c r="I72" s="19"/>
+      <c r="J72" s="20"/>
+    </row>
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B73" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D73" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F73" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G73" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H73" s="19"/>
+      <c r="I73" s="19"/>
+      <c r="J73" s="20"/>
+    </row>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F74" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G74" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F75" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
     </row>
     <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="C76" s="32"/>
-      <c r="H76" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I76" s="1"/>
-      <c r="J76" s="1"/>
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F76" s="18">
+        <v>48000</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1200000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
     </row>
     <row r="77" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B77" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="C77" s="32"/>
-      <c r="H77" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="I77" s="1"/>
-      <c r="J77" s="1"/>
+      <c r="B77" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="F77" s="24">
+        <v>40000</v>
+      </c>
+      <c r="G77" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H77" s="25"/>
+      <c r="I77" s="25"/>
+      <c r="J77" s="26"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="H82" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="B76:C76"/>
-    <mergeCell ref="H77:J77"/>
-    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="H83:J83"/>
+    <mergeCell ref="H82:J82"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
